--- a/dal, subji, kadhi/Dal/Chana dal from Rajbhog recipies.xlsx
+++ b/dal, subji, kadhi/Dal/Chana dal from Rajbhog recipies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Dal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43C44C6-F8A9-49C1-BD4F-F00C03FCA476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC946B15-E2CA-497C-A895-2B1E8D96B078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F19"/>
+      <selection activeCell="F3" sqref="F3:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -637,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="10">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="F4" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>8</v>
@@ -661,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F5" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>9</v>
@@ -700,12 +700,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="9">
-        <v>4</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>10</v>
@@ -717,7 +715,7 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -726,10 +724,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -747,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
@@ -762,7 +760,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="9">
@@ -772,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -790,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -809,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="E12" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -830,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -849,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,7 +859,7 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -873,7 +871,7 @@
         <v>0.25</v>
       </c>
       <c r="F15" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -882,17 +880,17 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="9">
         <v>4</v>
       </c>
       <c r="E16" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,10 +929,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,10 +950,10 @@
         <v>4</v>
       </c>
       <c r="E19" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
